--- a/biology/Médecine/Dominique_Anel/Dominique_Anel.xlsx
+++ b/biology/Médecine/Dominique_Anel/Dominique_Anel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Anel est un chirurgien français, né à Toulouse en 1679 et mort à Paris en 1730. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Anel étudie à Montpellier et Paris puis devient chirurgien dans l'armée française d'Alsace avant de servir deux ans à Vienne, en Italie et dans l'armée autrichienne. En 1710, il devient professeur de chirurgie à Rouen, puis à Gênes et enfin s'installe à Paris. 
 Anel est connu pour avoir imaginé le premier de traiter les anévrismes par la ligature de l'artère au-dessus de la tumeur, méthode qui fut faussement attribuée à Hunter qui l'a perfectionnée. Anel a proposé pour la fistule lacrymale un procédé de traitement qui a reçu l'approbation de beaucoup de chirurgiens.
-Il a mis au point une méthode permettant de tirer le sang des cavités du corps et le pus des plaies ou des abcès à l'aide d'un siphon plutôt que de sucer la plaie[1].
+Il a mis au point une méthode permettant de tirer le sang des cavités du corps et le pus des plaies ou des abcès à l'aide d'un siphon plutôt que de sucer la plaie.
 Vers 1720, il fabrique une seringue sur le modèle de la seringue à lavement, mais beaucoup plus petite.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les mémoires qu'il a publiés, il y en a plusieurs sur la fistule intitulés : 
 Observation singulière sur la fistule lacrymale (1713)
